--- a/data/supervision.xlsx
+++ b/data/supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\Desktop\Moni_HV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Moni_HV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7DD2CD-5D8E-4D6C-AC99-6E9E967B80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9CE817-71D5-4BB0-B837-D995C7DFFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2970" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>what</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tatiana Milena Vasquez, 'Análisis de acciones colectivas de tres colectivos feministas de Latinaomérica' (2021)</t>
   </si>
   <si>
-    <t>Paula Andrea Moncada, 'Análisis crítico discursivo con enfoque de género del cubrimiento periodístico de los casos de explotación sexual infantil en Colombia' (2021)</t>
-  </si>
-  <si>
     <t>María Camila Hernández, 'Constelaciones de sueños: los sueños como práctica comunicativa de mujeres víctimas de violencia sexual ' (2021)</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Jeisson Julián Jimenez, 'Discurso periodístico y violencia contra las farianas, una aproximación al tratamiento periodístico a los casos de aborto forzado de las FARC' (2019)</t>
   </si>
   <si>
-    <t>Olga Ochoa, 'Análisis de las estrategias de comunicación de los movimientos sociales feministas que lograron la despenalización parcial del aborto en Colombia' (2019)</t>
-  </si>
-  <si>
     <t>María Fernanda Vargas, '¿Amores que matan?: un análisis del feminicidio a través de la prensa colombiana' (2018)</t>
   </si>
   <si>
@@ -107,13 +101,28 @@
     <t>Dexy Tatiana Torres, 'Análisis de las estrategias comunicativas realizadas por la secretaria de Bogotá a favor de las mujeres víctimas de violencia de genero' (2019)</t>
   </si>
   <si>
-    <t>Angie Natalia Acosta, 'Discursos ciberfeministas en la red social de TikTok' (2021)</t>
-  </si>
-  <si>
     <t>Bogotá, Colombia</t>
   </si>
   <si>
     <t>Universidad Central</t>
+  </si>
+  <si>
+    <t>Angie Vargas Ballestero ’La resiliencia como acto de resistencia’ (2023) • Juliana Quitian Barrero, ’La resiliencia como acto de resistencia’ (2023)</t>
+  </si>
+  <si>
+    <t>Elver David Martínez Torres ’Memorias Inquiebrantables - Hip Hop y la Fotografía como testigo’ (2023)</t>
+  </si>
+  <si>
+    <t>Valentina Gómez Vega ’Tipos de violencias de género hacia las mujeres que realizan ciberactivismo y/o periodismo feminista en Colombia’ (2023)  • Trabajo de grado meritorio</t>
+  </si>
+  <si>
+    <t>Paula Andrea Moncada, 'Análisis crítico discursivo con enfoque de género del cubrimiento periodístico de los casos de explotación sexual infantil en Colombia' (2021) • Trabajo de grado meritorio</t>
+  </si>
+  <si>
+    <t>Angie Natalia Acosta, 'Discursos ciberfeministas en la red social de TikTok' (2021) • Trabajo de grado meritorio</t>
+  </si>
+  <si>
+    <t>Olga Ochoa, 'Análisis de las estrategias de comunicación de los movimientos sociales feministas que lograron la despenalización parcial del aborto en Colombia' (2019) • Trabajo de grado meritorio</t>
   </si>
 </sst>
 </file>
@@ -960,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +981,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="137.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="190.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,58 +1009,58 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,37 +1068,52 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/supervision.xlsx
+++ b/data/supervision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Moni_HV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9CE817-71D5-4BB0-B837-D995C7DFFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC77AC8-F8FE-4666-A49C-052AD8171CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>what</t>
   </si>
@@ -59,70 +59,67 @@
     <t>Desde 2018</t>
   </si>
   <si>
-    <t>Natalia Escudero, 'La moda como práctica social ue crea sentido' (2022)</t>
-  </si>
-  <si>
-    <t>Tatiana Milena Vasquez, 'Análisis de acciones colectivas de tres colectivos feministas de Latinaomérica' (2021)</t>
-  </si>
-  <si>
-    <t>María Camila Hernández, 'Constelaciones de sueños: los sueños como práctica comunicativa de mujeres víctimas de violencia sexual ' (2021)</t>
-  </si>
-  <si>
-    <t>Laura Daniela Lizcano, 'Resiliencia: memorias de mujeres reincorporadas, víctimas y sobrevivientes' (2020)</t>
-  </si>
-  <si>
-    <t>Yulieth Katherine Parra, 'Resiliencia: memorias de mujeres reincorporadas, víctimas y sobrevivientes' (2020)</t>
-  </si>
-  <si>
-    <t>Felipe Torres, 'La música en los procesos de memoria histórica' (2019)</t>
-  </si>
-  <si>
-    <t>Jeisson Julián Jimenez, 'Discurso periodístico y violencia contra las farianas, una aproximación al tratamiento periodístico a los casos de aborto forzado de las FARC' (2019)</t>
-  </si>
-  <si>
-    <t>María Fernanda Vargas, '¿Amores que matan?: un análisis del feminicidio a través de la prensa colombiana' (2018)</t>
-  </si>
-  <si>
-    <t>Edni Ovalle, 'El feminicidio de Yuliana Samboní ¿un lucro informativo o una forma de concienzar un problema social?' (2018)</t>
-  </si>
-  <si>
-    <t>Julieth Pinzón, 'Imagen gráfica en los medios de comunicación y la naturalización del feminicidio' (2018)</t>
-  </si>
-  <si>
-    <t>Laura Cortés, 'Las fuentes en el ejercicio periodístico sobre el relato del feminicidio en Colombia  ' (2018)</t>
-  </si>
-  <si>
-    <t>Edward Felipe Marín, 'Memoria Histórica en los casos de violencia sexual en el marco del conflicto armado colombiano' (2018)</t>
-  </si>
-  <si>
-    <t>Alison Johana Alexandra Paredes, 'El papel de los medios de comunicación frente al fortalecimiento de la memoria histórica en los casos de violencia sexual en el marco del conflicto armado colombiano' (2018)</t>
-  </si>
-  <si>
-    <t>Dexy Tatiana Torres, 'Análisis de las estrategias comunicativas realizadas por la secretaria de Bogotá a favor de las mujeres víctimas de violencia de genero' (2019)</t>
-  </si>
-  <si>
     <t>Bogotá, Colombia</t>
   </si>
   <si>
     <t>Universidad Central</t>
   </si>
   <si>
-    <t>Angie Vargas Ballestero ’La resiliencia como acto de resistencia’ (2023) • Juliana Quitian Barrero, ’La resiliencia como acto de resistencia’ (2023)</t>
-  </si>
-  <si>
-    <t>Elver David Martínez Torres ’Memorias Inquiebrantables - Hip Hop y la Fotografía como testigo’ (2023)</t>
-  </si>
-  <si>
-    <t>Valentina Gómez Vega ’Tipos de violencias de género hacia las mujeres que realizan ciberactivismo y/o periodismo feminista en Colombia’ (2023)  • Trabajo de grado meritorio</t>
-  </si>
-  <si>
-    <t>Paula Andrea Moncada, 'Análisis crítico discursivo con enfoque de género del cubrimiento periodístico de los casos de explotación sexual infantil en Colombia' (2021) • Trabajo de grado meritorio</t>
-  </si>
-  <si>
-    <t>Angie Natalia Acosta, 'Discursos ciberfeministas en la red social de TikTok' (2021) • Trabajo de grado meritorio</t>
-  </si>
-  <si>
-    <t>Olga Ochoa, 'Análisis de las estrategias de comunicación de los movimientos sociales feministas que lograron la despenalización parcial del aborto en Colombia' (2019) • Trabajo de grado meritorio</t>
+    <t>Valentina Gómez Vega (2023). \textit{Tipos de violencias de género hacia las mujeres que realizan ciberactivismo y/o periodismo feminista en Colombia} • \textbf{Trabajo de grado meritorio}</t>
+  </si>
+  <si>
+    <t>Elver David Martínez Torres (2023). \textit{Memorias Inquiebrantables - Hip Hop y la Fotografía como testigo}</t>
+  </si>
+  <si>
+    <t>Natalia Escudero (2022). \textit{La moda como práctica social ue crea sentido}</t>
+  </si>
+  <si>
+    <t>Tatiana Milena Vasquez (2021). \textit{Análisis de acciones colectivas de tres colectivos feministas de Latinaomérica}</t>
+  </si>
+  <si>
+    <t>Paula Andrea Moncada (2021). \textit{Análisis crítico discursivo con enfoque de género del cubrimiento periodístico de los casos de explotación sexual infantil en Colombia} • \textbf{Trabajo de grado meritorio}</t>
+  </si>
+  <si>
+    <t>Angie Natalia Acosta (2021). \textit{Discursos ciberfeministas en la red social de TikTok} • \textbf{Trabajo de grado meritorio}</t>
+  </si>
+  <si>
+    <t>Dexy Tatiana Torres (2019). \textit{Análisis de las estrategias comunicativas realizadas por la secretaria de Bogotá a favor de las mujeres víctimas de violencia de genero}</t>
+  </si>
+  <si>
+    <t>Felipe Torres (2019). \textit{La música en los procesos de memoria histórica}</t>
+  </si>
+  <si>
+    <t>Jeisson Julián Jimenez (2019). \textit{Discurso periodístico y violencia contra las farianas, una aproximación al tratamiento periodístico a los casos de aborto forzado de las FARC}</t>
+  </si>
+  <si>
+    <t>Olga Ochoa (2019). \textit{Análisis de las estrategias de comunicación de los movimientos sociales feministas que lograron la despenalización parcial del aborto en Colombia} • \textbf{Trabajo de grado meritorio}</t>
+  </si>
+  <si>
+    <t>María Fernanda Vargas (2018). \textit{¿Amores que matan?: un análisis del feminicidio a través de la prensa colombiana}</t>
+  </si>
+  <si>
+    <t>Edni Ovalle (2018). \textit{El feminicidio de Yuliana Samboní ¿un lucro informativo o una forma de concienzar un problema social?}</t>
+  </si>
+  <si>
+    <t>Julieth Pinzón (2018). \textit{Imagen gráfica en los medios de comunicación y la naturalización del feminicidio}</t>
+  </si>
+  <si>
+    <t>Laura Cortés (2018). \textit{Las fuentes en el ejercicio periodístico sobre el relato del feminicidio en Colombia}</t>
+  </si>
+  <si>
+    <t>Alison Johana Alexandra Paredes (2018). \textit{El papel de los medios de comunicación frente al fortalecimiento de la memoria histórica en los casos de violencia sexual en el marco del conflicto armado colombiano}</t>
+  </si>
+  <si>
+    <t>Edward Felipe Marín (2018). \textit{Memoria Histórica en los casos de violencia sexual en el marco del conflicto armado colombiano}</t>
+  </si>
+  <si>
+    <t>María Camila Hernández (2021). \textit{Constelaciones de sueños: los sueños como práctica comunicativa de mujeres víctimas de violencia sexual}</t>
+  </si>
+  <si>
+    <t>Angie Vargas Ballestero y Juliana Quitian Barrero (2023). \textit{La resiliencia como acto de resistencia}</t>
+  </si>
+  <si>
+    <t>Laura Daniela Lizcano y Yulieth Katherine Parra (2020). \textit{Resiliencia: memorias de mujeres reincorporadas, víctimas y sobrevivientes}</t>
   </si>
 </sst>
 </file>
@@ -969,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,58 +1006,58 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,52 +1065,47 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/supervision.xlsx
+++ b/data/supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Moni_HV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC77AC8-F8FE-4666-A49C-052AD8171CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5980D11E-D621-4440-A663-3EB5A94718F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Comunicación Social y periodismo</t>
   </si>
   <si>
-    <t>Desde 2018</t>
-  </si>
-  <si>
     <t>Bogotá, Colombia</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Laura Daniela Lizcano y Yulieth Katherine Parra (2020). \textit{Resiliencia: memorias de mujeres reincorporadas, víctimas y sobrevivientes}</t>
+  </si>
+  <si>
+    <t>2018 - 2023</t>
   </si>
 </sst>
 </file>
@@ -670,9 +670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,7 +710,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -816,7 +816,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -958,7 +958,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,7 +969,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,61 +1003,61 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,47 +1065,47 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
